--- a/data/token/HTX.xlsx
+++ b/data/token/HTX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>2024-08-25</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,6 +402,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
